--- a/Code/Results/Cases/Case_6_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.30803030831332</v>
+        <v>18.23491804702751</v>
       </c>
       <c r="C2">
-        <v>12.98301734187053</v>
+        <v>6.630838463803867</v>
       </c>
       <c r="D2">
-        <v>5.30333144341802</v>
+        <v>5.933739781739132</v>
       </c>
       <c r="E2">
-        <v>5.830455715808455</v>
+        <v>6.901045213544185</v>
       </c>
       <c r="F2">
-        <v>39.1409815954756</v>
+        <v>36.06927787184981</v>
       </c>
       <c r="G2">
-        <v>2.091669194283275</v>
+        <v>2.131989554806641</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.17758795477861</v>
+        <v>14.00259724319259</v>
       </c>
       <c r="L2">
-        <v>7.522425418505938</v>
+        <v>7.123871397567277</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.59768165274347</v>
+        <v>16.8871026952518</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.709286077018</v>
+        <v>17.23204104261947</v>
       </c>
       <c r="C3">
-        <v>12.08087955520658</v>
+        <v>6.26402490619112</v>
       </c>
       <c r="D3">
-        <v>5.378676209973968</v>
+        <v>6.004007981379029</v>
       </c>
       <c r="E3">
-        <v>5.835788379674776</v>
+        <v>6.794562740007376</v>
       </c>
       <c r="F3">
-        <v>37.46269791119325</v>
+        <v>35.01236678290545</v>
       </c>
       <c r="G3">
-        <v>2.103679117881713</v>
+        <v>2.141002119770786</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.72774481148022</v>
+        <v>13.25705842026671</v>
       </c>
       <c r="L3">
-        <v>7.272870071871592</v>
+        <v>6.92665543457246</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.75771272343634</v>
+        <v>16.97041807002437</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.69575656830223</v>
+        <v>16.60023602348589</v>
       </c>
       <c r="C4">
-        <v>11.50043772795311</v>
+        <v>6.029372868053706</v>
       </c>
       <c r="D4">
-        <v>5.427135346605126</v>
+        <v>6.047326790152193</v>
       </c>
       <c r="E4">
-        <v>5.841645298354484</v>
+        <v>6.732408620328322</v>
       </c>
       <c r="F4">
-        <v>36.43803626378396</v>
+        <v>34.37511051553872</v>
       </c>
       <c r="G4">
-        <v>2.111204495829754</v>
+        <v>2.1466788674894</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.9245000607413</v>
+        <v>12.78859890849927</v>
       </c>
       <c r="L4">
-        <v>7.121771021394893</v>
+        <v>6.807678673169233</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.86133395260297</v>
+        <v>17.02685795143937</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.27490911090225</v>
+        <v>16.33900729327904</v>
       </c>
       <c r="C5">
-        <v>11.25711023920485</v>
+        <v>5.931388756780046</v>
       </c>
       <c r="D5">
-        <v>5.44741165247618</v>
+        <v>6.065041915349037</v>
       </c>
       <c r="E5">
-        <v>5.844659835974658</v>
+        <v>6.707891391109416</v>
       </c>
       <c r="F5">
-        <v>36.02224328229949</v>
+        <v>34.1185417440629</v>
       </c>
       <c r="G5">
-        <v>2.11431250197696</v>
+        <v>2.149029853155436</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.59096142201079</v>
+        <v>12.59521936470736</v>
       </c>
       <c r="L5">
-        <v>7.060776948684294</v>
+        <v>6.759769465010869</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.90485342855232</v>
+        <v>17.05113846052318</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20456263661614</v>
+        <v>16.29541225520769</v>
       </c>
       <c r="C6">
-        <v>11.21629229442056</v>
+        <v>5.914976421231331</v>
       </c>
       <c r="D6">
-        <v>5.450809842001367</v>
+        <v>6.067987785789406</v>
       </c>
       <c r="E6">
-        <v>5.845197706841627</v>
+        <v>6.703869283100253</v>
       </c>
       <c r="F6">
-        <v>35.95331799176179</v>
+        <v>34.07613244042812</v>
       </c>
       <c r="G6">
-        <v>2.114831173580094</v>
+        <v>2.149422555257412</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.53520843785132</v>
+        <v>12.56296620044075</v>
       </c>
       <c r="L6">
-        <v>7.050685385233846</v>
+        <v>6.751850185833574</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.91215642336494</v>
+        <v>17.05524624961664</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.69011223118245</v>
+        <v>16.59672783720551</v>
       </c>
       <c r="C7">
-        <v>11.49718378473134</v>
+        <v>6.028060961739934</v>
       </c>
       <c r="D7">
-        <v>5.427406687095878</v>
+        <v>6.047565426308809</v>
       </c>
       <c r="E7">
-        <v>5.841683439179826</v>
+        <v>6.732074689441424</v>
       </c>
       <c r="F7">
-        <v>36.43242113526122</v>
+        <v>34.37163746992636</v>
       </c>
       <c r="G7">
-        <v>2.111246239855849</v>
+        <v>2.146710419021464</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.92002673028087</v>
+        <v>12.78600064750458</v>
       </c>
       <c r="L7">
-        <v>7.120946021894959</v>
+        <v>6.807030167277057</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.861915703771</v>
+        <v>17.02718028146005</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.76348944063369</v>
+        <v>17.89259649214931</v>
       </c>
       <c r="C8">
-        <v>12.67738755754297</v>
+        <v>6.50631969249942</v>
       </c>
       <c r="D8">
-        <v>5.328838701810649</v>
+        <v>5.957943813989107</v>
       </c>
       <c r="E8">
-        <v>5.831744954372338</v>
+        <v>6.863660449735836</v>
       </c>
       <c r="F8">
-        <v>38.56126193558107</v>
+        <v>35.70253129119426</v>
       </c>
       <c r="G8">
-        <v>2.095780920282761</v>
+        <v>2.135068472128184</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.68295597010966</v>
+        <v>13.74786801467509</v>
       </c>
       <c r="L8">
-        <v>7.435961466372587</v>
+        <v>7.055457530982688</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.65171195163381</v>
+        <v>16.91470314118956</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.65421972138141</v>
+        <v>20.29782558102292</v>
       </c>
       <c r="C9">
-        <v>14.78757643241895</v>
+        <v>7.36956930646612</v>
       </c>
       <c r="D9">
-        <v>5.154302924177116</v>
+        <v>5.782659493623145</v>
       </c>
       <c r="E9">
-        <v>5.833797381781965</v>
+        <v>7.147303767750993</v>
       </c>
       <c r="F9">
-        <v>42.77312338526621</v>
+        <v>38.39829533221679</v>
       </c>
       <c r="G9">
-        <v>2.066486467025245</v>
+        <v>2.113289744327463</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.09663170530765</v>
+        <v>15.54223816911698</v>
       </c>
       <c r="L9">
-        <v>8.06908568221451</v>
+        <v>7.55767781852445</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.28497428243022</v>
+        <v>16.73842732667162</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.48671193415939</v>
+        <v>21.97434644916429</v>
       </c>
       <c r="C10">
-        <v>16.22343592807272</v>
+        <v>7.959348827220375</v>
       </c>
       <c r="D10">
-        <v>5.039836464373204</v>
+        <v>5.652761269389099</v>
       </c>
       <c r="E10">
-        <v>5.850028385109637</v>
+        <v>7.371359480484473</v>
       </c>
       <c r="F10">
-        <v>45.88596938801278</v>
+        <v>40.42408275341815</v>
       </c>
       <c r="G10">
-        <v>2.045330433712912</v>
+        <v>2.097802532965919</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.41669236133284</v>
+        <v>17.04443728479709</v>
       </c>
       <c r="L10">
-        <v>8.542456264753371</v>
+        <v>7.933888981459103</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.04814389480046</v>
+        <v>16.63955612063679</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.73346130595076</v>
+        <v>22.71676163879788</v>
       </c>
       <c r="C11">
-        <v>16.85439614669419</v>
+        <v>8.21843111676522</v>
       </c>
       <c r="D11">
-        <v>4.99145026741597</v>
+        <v>5.593076773665831</v>
       </c>
       <c r="E11">
-        <v>5.861005292275945</v>
+        <v>7.476726643778625</v>
       </c>
       <c r="F11">
-        <v>47.30760179299538</v>
+        <v>41.35469656244545</v>
       </c>
       <c r="G11">
-        <v>2.035716839435715</v>
+        <v>2.090836992192331</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.43523439877283</v>
+        <v>17.70483976105853</v>
       </c>
       <c r="L11">
-        <v>8.759637321382959</v>
+        <v>8.106322373062314</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.94886083826053</v>
+        <v>16.60214783149394</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.19997457174175</v>
+        <v>22.99499208106552</v>
       </c>
       <c r="C12">
-        <v>17.09038302624459</v>
+        <v>8.315261988803949</v>
       </c>
       <c r="D12">
-        <v>4.973733429219305</v>
+        <v>5.570358221990376</v>
       </c>
       <c r="E12">
-        <v>5.865715982004792</v>
+        <v>7.517127140784624</v>
       </c>
       <c r="F12">
-        <v>47.8470441479191</v>
+        <v>41.70839097414947</v>
       </c>
       <c r="G12">
-        <v>2.032071199501082</v>
+        <v>2.088207854716745</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.81600746646458</v>
+        <v>17.95092641526566</v>
       </c>
       <c r="L12">
-        <v>8.842169967354597</v>
+        <v>8.171790540598375</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.91262287207775</v>
+        <v>16.58915755622681</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.09974459726975</v>
+        <v>22.93519889815397</v>
       </c>
       <c r="C13">
-        <v>17.03968557511683</v>
+        <v>8.294463714835306</v>
       </c>
       <c r="D13">
-        <v>4.977520725644088</v>
+        <v>5.575256832807902</v>
       </c>
       <c r="E13">
-        <v>5.864676172488145</v>
+        <v>7.508403805400862</v>
       </c>
       <c r="F13">
-        <v>47.73081020287798</v>
+        <v>41.63215879207019</v>
       </c>
       <c r="G13">
-        <v>2.032856700662319</v>
+        <v>2.088773755131131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.73421374409305</v>
+        <v>17.89810242320065</v>
       </c>
       <c r="L13">
-        <v>8.824381511835643</v>
+        <v>8.157683312417126</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.92036439624584</v>
+        <v>16.59190147808252</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.77195136449877</v>
+        <v>22.73970988857359</v>
       </c>
       <c r="C14">
-        <v>16.87386836412963</v>
+        <v>8.226422760022501</v>
       </c>
       <c r="D14">
-        <v>4.989980052807038</v>
+        <v>5.591210251590177</v>
       </c>
       <c r="E14">
-        <v>5.861381512199952</v>
+        <v>7.480040350332137</v>
       </c>
       <c r="F14">
-        <v>47.35195771298892</v>
+        <v>41.38376923161541</v>
       </c>
       <c r="G14">
-        <v>2.035417056035328</v>
+        <v>2.090620537558004</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.46665722879514</v>
+        <v>17.7251646201959</v>
       </c>
       <c r="L14">
-        <v>8.766421279362357</v>
+        <v>8.111705095166363</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.94585138363379</v>
+        <v>16.60105502364047</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.57045200916684</v>
+        <v>22.61958963550176</v>
       </c>
       <c r="C15">
-        <v>16.77192520249972</v>
+        <v>8.184580838333916</v>
       </c>
       <c r="D15">
-        <v>4.997693205301433</v>
+        <v>5.60096589405721</v>
       </c>
       <c r="E15">
-        <v>5.859436760748685</v>
+        <v>7.462732268863928</v>
       </c>
       <c r="F15">
-        <v>47.12005449821752</v>
+        <v>41.23179207613403</v>
       </c>
       <c r="G15">
-        <v>2.036984458080327</v>
+        <v>2.09175276896547</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.30214156738151</v>
+        <v>17.61871965876896</v>
       </c>
       <c r="L15">
-        <v>8.730957968791602</v>
+        <v>8.083564149713169</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.96164448317115</v>
+        <v>16.60681765658129</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.40442618736164</v>
+        <v>21.92541997373703</v>
       </c>
       <c r="C16">
-        <v>16.18177473761428</v>
+        <v>7.942235588723241</v>
       </c>
       <c r="D16">
-        <v>5.043078903844143</v>
+        <v>5.656647191917298</v>
       </c>
       <c r="E16">
-        <v>5.849386414466683</v>
+        <v>7.364543139008941</v>
       </c>
       <c r="F16">
-        <v>45.79319673483067</v>
+        <v>40.36344521599761</v>
       </c>
       <c r="G16">
-        <v>2.04595836506553</v>
+        <v>2.098259109966699</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.34941723950176</v>
+        <v>17.00071147901579</v>
       </c>
       <c r="L16">
-        <v>8.528301803776339</v>
+        <v>7.922644628043226</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.05481400316596</v>
+        <v>16.64216037170028</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.67867296613669</v>
+        <v>21.49437459425024</v>
       </c>
       <c r="C17">
-        <v>15.81421330876598</v>
+        <v>7.791235365613189</v>
       </c>
       <c r="D17">
-        <v>5.071914549420063</v>
+        <v>5.690632168712506</v>
       </c>
       <c r="E17">
-        <v>5.844166400935936</v>
+        <v>7.305191832967811</v>
       </c>
       <c r="F17">
-        <v>44.98080713444466</v>
+        <v>39.83304096221293</v>
       </c>
       <c r="G17">
-        <v>2.051461774610961</v>
+        <v>2.102268978106816</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.75575989830374</v>
+        <v>16.61431290357988</v>
       </c>
       <c r="L17">
-        <v>8.404462870553735</v>
+        <v>7.8242437845415</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.11422923858706</v>
+        <v>16.66583955074919</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.25727938405201</v>
+        <v>21.24454032038696</v>
       </c>
       <c r="C18">
-        <v>15.60069332423556</v>
+        <v>7.703513607422509</v>
       </c>
       <c r="D18">
-        <v>5.088841488284919</v>
+        <v>5.710125701911763</v>
       </c>
       <c r="E18">
-        <v>5.841499749534392</v>
+        <v>7.271378142727185</v>
       </c>
       <c r="F18">
-        <v>44.51404093371313</v>
+        <v>39.52881832397996</v>
       </c>
       <c r="G18">
-        <v>2.054628620195932</v>
+        <v>2.10458303718723</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.41080866158931</v>
+        <v>16.38934945452061</v>
       </c>
       <c r="L18">
-        <v>8.333404694849527</v>
+        <v>7.76776828425918</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.14918893574518</v>
+        <v>16.6801658484313</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.11391165065704</v>
+        <v>21.15962351585486</v>
       </c>
       <c r="C19">
-        <v>15.52802992972198</v>
+        <v>7.673661774969521</v>
       </c>
       <c r="D19">
-        <v>5.094629243338171</v>
+        <v>5.71671757312395</v>
       </c>
       <c r="E19">
-        <v>5.840653467123506</v>
+        <v>7.25998488285084</v>
       </c>
       <c r="F19">
-        <v>44.35608096564241</v>
+        <v>39.42596130413281</v>
       </c>
       <c r="G19">
-        <v>2.055701293283817</v>
+        <v>2.105367941788972</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.29340322209008</v>
+        <v>16.31270986753133</v>
       </c>
       <c r="L19">
-        <v>8.30937447174391</v>
+        <v>7.748668200975284</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.16115666994184</v>
+        <v>16.68513535444717</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.75633775406613</v>
+        <v>21.54045772034559</v>
       </c>
       <c r="C20">
-        <v>15.85355735290315</v>
+        <v>7.807399377009189</v>
       </c>
       <c r="D20">
-        <v>5.0688091088232</v>
+        <v>5.687020192065596</v>
       </c>
       <c r="E20">
-        <v>5.844687073720616</v>
+        <v>7.311476361239971</v>
       </c>
       <c r="F20">
-        <v>45.0672340936415</v>
+        <v>39.8894154952932</v>
       </c>
       <c r="G20">
-        <v>2.050875824567317</v>
+        <v>2.101841345031098</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.81931493359382</v>
+        <v>16.65572591753104</v>
       </c>
       <c r="L20">
-        <v>8.41762794569248</v>
+        <v>7.834706222876979</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.10782212097929</v>
+        <v>16.6632451241911</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.86838068185001</v>
+        <v>22.79720837095252</v>
       </c>
       <c r="C21">
-        <v>16.92265061660551</v>
+        <v>8.24644229942561</v>
       </c>
       <c r="D21">
-        <v>4.986303311457798</v>
+        <v>5.586527801953994</v>
       </c>
       <c r="E21">
-        <v>5.862333880581131</v>
+        <v>7.488357751043926</v>
       </c>
       <c r="F21">
-        <v>47.4632028436162</v>
+        <v>41.45669207653328</v>
       </c>
       <c r="G21">
-        <v>2.034665216319108</v>
+        <v>2.090077885029561</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.54537551882808</v>
+        <v>17.77606781168562</v>
       </c>
       <c r="L21">
-        <v>8.783437399989037</v>
+        <v>8.12520543213309</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.93832710322305</v>
+        <v>16.5983337632822</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.21630353310793</v>
+        <v>23.61859221567686</v>
       </c>
       <c r="C22">
-        <v>17.60434887051935</v>
+        <v>8.525962245090456</v>
       </c>
       <c r="D22">
-        <v>4.935961068249991</v>
+        <v>5.520148985441465</v>
       </c>
       <c r="E22">
-        <v>5.877116654472491</v>
+        <v>7.606880666682303</v>
       </c>
       <c r="F22">
-        <v>49.03577774384667</v>
+        <v>42.48855553138512</v>
       </c>
       <c r="G22">
-        <v>2.024036600934963</v>
+        <v>2.082438114833132</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.64495400198417</v>
+        <v>18.48507634715077</v>
       </c>
       <c r="L22">
-        <v>9.024238052142252</v>
+        <v>8.316062272818195</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.83555595786761</v>
+        <v>16.5628092314976</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.49970490901448</v>
+        <v>23.17384383264892</v>
       </c>
       <c r="C23">
-        <v>17.24197779018762</v>
+        <v>8.377438043608699</v>
       </c>
       <c r="D23">
-        <v>4.96247242620301</v>
+        <v>5.555652248995223</v>
       </c>
       <c r="E23">
-        <v>5.868915987908012</v>
+        <v>7.543352915786031</v>
       </c>
       <c r="F23">
-        <v>48.19571465896897</v>
+        <v>41.93712983620553</v>
       </c>
       <c r="G23">
-        <v>2.029714882177008</v>
+        <v>2.086512220481106</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.06055785535226</v>
+        <v>18.10873672945894</v>
       </c>
       <c r="L23">
-        <v>8.89554643544947</v>
+        <v>8.21410941934926</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.88962025904206</v>
+        <v>16.58110679204127</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.72123845412592</v>
+        <v>21.5196298324272</v>
       </c>
       <c r="C24">
-        <v>15.83577679403048</v>
+        <v>7.800094464422967</v>
       </c>
       <c r="D24">
-        <v>5.070211997181636</v>
+        <v>5.688653304129806</v>
       </c>
       <c r="E24">
-        <v>5.844450638714093</v>
+        <v>7.308634166476466</v>
       </c>
       <c r="F24">
-        <v>45.02815959067736</v>
+        <v>39.86392634373556</v>
       </c>
       <c r="G24">
-        <v>2.051140723177297</v>
+        <v>2.102034650529895</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.79059309776101</v>
+        <v>16.63701188128541</v>
       </c>
       <c r="L24">
-        <v>8.411675585568702</v>
+        <v>7.829975852843186</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.11071629414254</v>
+        <v>16.66441585062499</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.57181659982104</v>
+        <v>19.66269597841061</v>
       </c>
       <c r="C25">
-        <v>14.23761858731095</v>
+        <v>7.143955531768925</v>
       </c>
       <c r="D25">
-        <v>5.19930150362628</v>
+        <v>5.830165698288885</v>
       </c>
       <c r="E25">
-        <v>5.830780335487865</v>
+        <v>7.067826418407799</v>
       </c>
       <c r="F25">
-        <v>41.6305662704098</v>
+        <v>37.66067742447856</v>
       </c>
       <c r="G25">
-        <v>2.074326047234681</v>
+        <v>2.119081385753907</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.20734030593182</v>
+        <v>15.06745023047144</v>
       </c>
       <c r="L25">
-        <v>7.89632933958349</v>
+        <v>7.420423690295033</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.37886493244561</v>
+        <v>16.78101997152283</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.23491804702751</v>
+        <v>14.54242053197825</v>
       </c>
       <c r="C2">
-        <v>6.630838463803867</v>
+        <v>7.396074268468286</v>
       </c>
       <c r="D2">
-        <v>5.933739781739132</v>
+        <v>5.090841253541316</v>
       </c>
       <c r="E2">
-        <v>6.901045213544185</v>
+        <v>7.40510994171933</v>
       </c>
       <c r="F2">
-        <v>36.06927787184981</v>
+        <v>23.29787357094899</v>
       </c>
       <c r="G2">
-        <v>2.131989554806641</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>31.79979740870505</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.154014134538242</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.07551498539273</v>
       </c>
       <c r="K2">
-        <v>14.00259724319259</v>
+        <v>18.05456938111116</v>
       </c>
       <c r="L2">
-        <v>7.123871397567277</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.87183581258707</v>
       </c>
       <c r="N2">
-        <v>16.8871026952518</v>
+        <v>6.998240790001196</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.38400170183346</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.23204104261947</v>
+        <v>13.64729818787276</v>
       </c>
       <c r="C3">
-        <v>6.26402490619112</v>
+        <v>7.073812214249623</v>
       </c>
       <c r="D3">
-        <v>6.004007981379029</v>
+        <v>5.006400383610299</v>
       </c>
       <c r="E3">
-        <v>6.794562740007376</v>
+        <v>7.280549435491232</v>
       </c>
       <c r="F3">
-        <v>35.01236678290545</v>
+        <v>22.79493710620743</v>
       </c>
       <c r="G3">
-        <v>2.141002119770786</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>31.08668441284641</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.361487050303051</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.04197685550515</v>
       </c>
       <c r="K3">
-        <v>13.25705842026671</v>
+        <v>17.98250331871887</v>
       </c>
       <c r="L3">
-        <v>6.92665543457246</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.11771363362611</v>
       </c>
       <c r="N3">
-        <v>16.97041807002437</v>
+        <v>6.792677918130249</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.55705928199281</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.60023602348589</v>
+        <v>13.0675602109128</v>
       </c>
       <c r="C4">
-        <v>6.029372868053706</v>
+        <v>6.870099679576184</v>
       </c>
       <c r="D4">
-        <v>6.047326790152193</v>
+        <v>4.953444401997181</v>
       </c>
       <c r="E4">
-        <v>6.732408620328322</v>
+        <v>7.205148061444406</v>
       </c>
       <c r="F4">
-        <v>34.37511051553872</v>
+        <v>22.49197571986023</v>
       </c>
       <c r="G4">
-        <v>2.1466788674894</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>30.65657940723138</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.494178080534026</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.02545877337369</v>
       </c>
       <c r="K4">
-        <v>12.78859890849927</v>
+        <v>17.94380375736297</v>
       </c>
       <c r="L4">
-        <v>6.807678673169233</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.62800150228406</v>
       </c>
       <c r="N4">
-        <v>17.02685795143937</v>
+        <v>6.667378768357734</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.66509912295142</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.33900729327904</v>
+        <v>12.81814061500099</v>
       </c>
       <c r="C5">
-        <v>5.931388756780046</v>
+        <v>6.790206979888221</v>
       </c>
       <c r="D5">
-        <v>6.065041915349037</v>
+        <v>4.932605065811427</v>
       </c>
       <c r="E5">
-        <v>6.707891391109416</v>
+        <v>7.172942629718178</v>
       </c>
       <c r="F5">
-        <v>34.1185417440629</v>
+        <v>22.3610864309203</v>
       </c>
       <c r="G5">
-        <v>2.149029853155436</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>30.46730770193255</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.552353327248143</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.01689469756921</v>
       </c>
       <c r="K5">
-        <v>12.59521936470736</v>
+        <v>17.922530268852</v>
       </c>
       <c r="L5">
-        <v>6.759769465010869</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.42068321291937</v>
       </c>
       <c r="N5">
-        <v>17.05113846052318</v>
+        <v>6.61717606765275</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.70838383621306</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.29541225520769</v>
+        <v>12.76930301637527</v>
       </c>
       <c r="C6">
-        <v>5.914976421231331</v>
+        <v>6.78245530223306</v>
       </c>
       <c r="D6">
-        <v>6.067987785789406</v>
+        <v>4.930370407894395</v>
       </c>
       <c r="E6">
-        <v>6.703869283100253</v>
+        <v>7.16543647908553</v>
       </c>
       <c r="F6">
-        <v>34.07613244042812</v>
+        <v>22.32842709903673</v>
       </c>
       <c r="G6">
-        <v>2.149422555257412</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>30.41631735344424</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.565621210792741</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.01206780148016</v>
       </c>
       <c r="K6">
-        <v>12.56296620044075</v>
+        <v>17.91068513465175</v>
       </c>
       <c r="L6">
-        <v>6.751850185833574</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.3845773899916</v>
       </c>
       <c r="N6">
-        <v>17.05524624961664</v>
+        <v>6.609539462655162</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.71412855719204</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.59672783720551</v>
+        <v>13.04559134120314</v>
       </c>
       <c r="C7">
-        <v>6.028060961739934</v>
+        <v>6.884124069663192</v>
       </c>
       <c r="D7">
-        <v>6.047565426308809</v>
+        <v>4.956565642549545</v>
       </c>
       <c r="E7">
-        <v>6.732074689441424</v>
+        <v>7.198794200994187</v>
       </c>
       <c r="F7">
-        <v>34.37163746992636</v>
+        <v>22.46030423371764</v>
       </c>
       <c r="G7">
-        <v>2.146710419021464</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>30.60061414010868</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.504325848546388</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.01589605220319</v>
       </c>
       <c r="K7">
-        <v>12.78600064750458</v>
+        <v>17.92062534190763</v>
       </c>
       <c r="L7">
-        <v>6.807030167277057</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.62182356102489</v>
       </c>
       <c r="N7">
-        <v>17.02718028146005</v>
+        <v>6.668533310983546</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.66170774546552</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.89259649214931</v>
+        <v>14.21717822893301</v>
       </c>
       <c r="C8">
-        <v>6.50631969249942</v>
+        <v>7.30529629313472</v>
       </c>
       <c r="D8">
-        <v>5.957943813989107</v>
+        <v>5.066497630621757</v>
       </c>
       <c r="E8">
-        <v>6.863660449735836</v>
+        <v>7.354268692499574</v>
       </c>
       <c r="F8">
-        <v>35.70253129119426</v>
+        <v>23.08478463707919</v>
       </c>
       <c r="G8">
-        <v>2.135068472128184</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>31.48363612309643</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.236566421256949</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.05069312648444</v>
       </c>
       <c r="K8">
-        <v>13.74786801467509</v>
+        <v>17.99849568104246</v>
       </c>
       <c r="L8">
-        <v>7.055457530982688</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.61314481332676</v>
       </c>
       <c r="N8">
-        <v>16.91470314118956</v>
+        <v>6.929539056569778</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.43825256208752</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.29782558102292</v>
+        <v>16.30233314979052</v>
       </c>
       <c r="C9">
-        <v>7.36956930646612</v>
+        <v>8.05880503979669</v>
       </c>
       <c r="D9">
-        <v>5.782659493623145</v>
+        <v>5.266818210409003</v>
       </c>
       <c r="E9">
-        <v>7.147303767750993</v>
+        <v>7.676750346669777</v>
       </c>
       <c r="F9">
-        <v>38.39829533221679</v>
+        <v>24.40251283639163</v>
       </c>
       <c r="G9">
-        <v>2.113289744327463</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>33.36234590272593</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.737345251888686</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.1690983383959</v>
       </c>
       <c r="K9">
-        <v>15.54223816911698</v>
+        <v>18.23729325308748</v>
       </c>
       <c r="L9">
-        <v>7.55767781852445</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.35157662107424</v>
       </c>
       <c r="N9">
-        <v>16.73842732667162</v>
+        <v>7.442564465136077</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>13.02014489096307</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.97434644916429</v>
+        <v>17.72185948441119</v>
       </c>
       <c r="C10">
-        <v>7.959348827220375</v>
+        <v>8.589897266759889</v>
       </c>
       <c r="D10">
-        <v>5.652761269389099</v>
+        <v>5.409809598703203</v>
       </c>
       <c r="E10">
-        <v>7.371359480484473</v>
+        <v>7.91363613573894</v>
       </c>
       <c r="F10">
-        <v>40.42408275341815</v>
+        <v>25.3759977285099</v>
       </c>
       <c r="G10">
-        <v>2.097802532965919</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>34.74353455966288</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.567118325506478</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.27343158661986</v>
       </c>
       <c r="K10">
-        <v>17.04443728479709</v>
+        <v>18.43149826028515</v>
       </c>
       <c r="L10">
-        <v>7.933888981459103</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.50010103365917</v>
       </c>
       <c r="N10">
-        <v>16.63955612063679</v>
+        <v>7.819217776991187</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.71818240284642</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.71676163879788</v>
+        <v>18.32798577469822</v>
       </c>
       <c r="C11">
-        <v>8.21843111676522</v>
+        <v>8.84532689935015</v>
       </c>
       <c r="D11">
-        <v>5.593076773665831</v>
+        <v>5.479116969577178</v>
       </c>
       <c r="E11">
-        <v>7.476726643778625</v>
+        <v>8.012910706980044</v>
       </c>
       <c r="F11">
-        <v>41.35469656244545</v>
+        <v>25.77939575387885</v>
       </c>
       <c r="G11">
-        <v>2.090836992192331</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>35.30052036623446</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.722146082247207</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.31121890589716</v>
       </c>
       <c r="K11">
-        <v>17.70483976105853</v>
+        <v>18.49104899295311</v>
       </c>
       <c r="L11">
-        <v>8.106322373062314</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.99118285281372</v>
       </c>
       <c r="N11">
-        <v>16.60214783149394</v>
+        <v>7.992083548264126</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.57642491701921</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.99499208106552</v>
+        <v>18.56438635096537</v>
       </c>
       <c r="C12">
-        <v>8.315261988803949</v>
+        <v>8.930134929011187</v>
       </c>
       <c r="D12">
-        <v>5.570358221990376</v>
+        <v>5.502176967115703</v>
       </c>
       <c r="E12">
-        <v>7.517127140784624</v>
+        <v>8.055232979889665</v>
       </c>
       <c r="F12">
-        <v>41.70839097414947</v>
+        <v>25.95551269253696</v>
       </c>
       <c r="G12">
-        <v>2.088207854716745</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>35.55282365901405</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.777432207029306</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.3341870597277</v>
       </c>
       <c r="K12">
-        <v>17.95092641526566</v>
+        <v>18.53376097062553</v>
       </c>
       <c r="L12">
-        <v>8.171790540598375</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.17556194167092</v>
       </c>
       <c r="N12">
-        <v>16.58915755622681</v>
+        <v>8.056038306156827</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.52594235545864</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.93519889815397</v>
+        <v>18.51611424596415</v>
       </c>
       <c r="C13">
-        <v>8.294463714835306</v>
+        <v>8.909738273568244</v>
       </c>
       <c r="D13">
-        <v>5.575256832807902</v>
+        <v>5.496619676909311</v>
       </c>
       <c r="E13">
-        <v>7.508403805400862</v>
+        <v>8.047056115102052</v>
       </c>
       <c r="F13">
-        <v>41.63215879207019</v>
+        <v>25.92212427821809</v>
       </c>
       <c r="G13">
-        <v>2.088773755131131</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>35.50655749890759</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.764899177211379</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.33078663096556</v>
       </c>
       <c r="K13">
-        <v>17.89810242320065</v>
+        <v>18.52833985457885</v>
       </c>
       <c r="L13">
-        <v>8.157683312417126</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.13647477302526</v>
       </c>
       <c r="N13">
-        <v>16.59190147808252</v>
+        <v>8.042012257261037</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.5374126923695</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.73970988857359</v>
+        <v>18.34857093582997</v>
       </c>
       <c r="C14">
-        <v>8.226422760022501</v>
+        <v>8.851393908233973</v>
       </c>
       <c r="D14">
-        <v>5.591210251590177</v>
+        <v>5.480763029991791</v>
       </c>
       <c r="E14">
-        <v>7.480040350332137</v>
+        <v>8.016792344692261</v>
       </c>
       <c r="F14">
-        <v>41.38376923161541</v>
+        <v>25.79582271593834</v>
       </c>
       <c r="G14">
-        <v>2.090620537558004</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>35.32472238659375</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.726416371329893</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.31376557668805</v>
       </c>
       <c r="K14">
-        <v>17.7251646201959</v>
+        <v>18.49616923258964</v>
       </c>
       <c r="L14">
-        <v>8.111705095166363</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.00662191403762</v>
       </c>
       <c r="N14">
-        <v>16.60105502364047</v>
+        <v>7.997237428228532</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.57252594477425</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.61958963550176</v>
+        <v>18.24043902840974</v>
       </c>
       <c r="C15">
-        <v>8.184580838333916</v>
+        <v>8.819868927293093</v>
       </c>
       <c r="D15">
-        <v>5.60096589405721</v>
+        <v>5.472208520878576</v>
       </c>
       <c r="E15">
-        <v>7.462732268863928</v>
+        <v>7.996396210661056</v>
       </c>
       <c r="F15">
-        <v>41.23179207613403</v>
+        <v>25.70944936206734</v>
       </c>
       <c r="G15">
-        <v>2.09175276896547</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>35.19731719353224</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.704215709704843</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.30031768152829</v>
       </c>
       <c r="K15">
-        <v>17.61871965876896</v>
+        <v>18.46904564252261</v>
       </c>
       <c r="L15">
-        <v>8.083564149713169</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.92568083641909</v>
       </c>
       <c r="N15">
-        <v>16.60681765658129</v>
+        <v>7.970307345525554</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.59286000797545</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.92541997373703</v>
+        <v>17.6400841249813</v>
       </c>
       <c r="C16">
-        <v>7.942235588723241</v>
+        <v>8.610100847613332</v>
       </c>
       <c r="D16">
-        <v>5.656647191917298</v>
+        <v>5.415238444259008</v>
       </c>
       <c r="E16">
-        <v>7.364543139008941</v>
+        <v>7.891341412185309</v>
       </c>
       <c r="F16">
-        <v>40.36344521599761</v>
+        <v>25.27245634765663</v>
       </c>
       <c r="G16">
-        <v>2.098259109966699</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>34.56989890988923</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.567968243388007</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.24464326045273</v>
       </c>
       <c r="K16">
-        <v>17.00071147901579</v>
+        <v>18.363780808215</v>
       </c>
       <c r="L16">
-        <v>7.922644628043226</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.459741225793</v>
       </c>
       <c r="N16">
-        <v>16.64216037170028</v>
+        <v>7.812360186744789</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.71730297749592</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.49437459425024</v>
+        <v>17.26199678275076</v>
       </c>
       <c r="C17">
-        <v>7.791235365613189</v>
+        <v>8.479792509467773</v>
       </c>
       <c r="D17">
-        <v>5.690632168712506</v>
+        <v>5.37990229119558</v>
       </c>
       <c r="E17">
-        <v>7.305191832967811</v>
+        <v>7.826976279093781</v>
       </c>
       <c r="F17">
-        <v>39.83304096221293</v>
+        <v>25.00517878041781</v>
       </c>
       <c r="G17">
-        <v>2.102268978106816</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>34.18611675748428</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.533345170940376</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.2119014823471</v>
       </c>
       <c r="K17">
-        <v>16.61431290357988</v>
+        <v>18.30122582386036</v>
       </c>
       <c r="L17">
-        <v>7.8242437845415</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.16694958968488</v>
       </c>
       <c r="N17">
-        <v>16.66583955074919</v>
+        <v>7.715197419006274</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.79397660437682</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.24454032038696</v>
+        <v>17.05384163551193</v>
       </c>
       <c r="C18">
-        <v>7.703513607422509</v>
+        <v>8.392748562533251</v>
       </c>
       <c r="D18">
-        <v>5.710125701911763</v>
+        <v>5.356397115395676</v>
       </c>
       <c r="E18">
-        <v>7.271378142727185</v>
+        <v>7.794838155124557</v>
       </c>
       <c r="F18">
-        <v>39.52881832397996</v>
+        <v>24.87554531205905</v>
       </c>
       <c r="G18">
-        <v>2.10458303718723</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>34.00811587187983</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.575178926340241</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.20162081876915</v>
       </c>
       <c r="K18">
-        <v>16.38934945452061</v>
+        <v>18.28543718424215</v>
       </c>
       <c r="L18">
-        <v>7.76776828425918</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.99837646967461</v>
       </c>
       <c r="N18">
-        <v>16.6801658484313</v>
+        <v>7.657845980149848</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.8412926877163</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.15962351585486</v>
+        <v>16.97279134290043</v>
       </c>
       <c r="C19">
-        <v>7.673661774969521</v>
+        <v>8.3720221450391</v>
       </c>
       <c r="D19">
-        <v>5.71671757312395</v>
+        <v>5.35075844980121</v>
       </c>
       <c r="E19">
-        <v>7.25998488285084</v>
+        <v>7.780232002074655</v>
       </c>
       <c r="F19">
-        <v>39.42596130413281</v>
+        <v>24.81340309615809</v>
       </c>
       <c r="G19">
-        <v>2.105367941788972</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>33.91535804662954</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.597613246238233</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.19202715743739</v>
       </c>
       <c r="K19">
-        <v>16.31270986753133</v>
+        <v>18.26521120406633</v>
       </c>
       <c r="L19">
-        <v>7.748668200975284</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.93901182594642</v>
       </c>
       <c r="N19">
-        <v>16.68513535444717</v>
+        <v>7.639480410581584</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.85495448130446</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.54045772034559</v>
+        <v>17.30362107789452</v>
       </c>
       <c r="C20">
-        <v>7.807399377009189</v>
+        <v>8.492831168299888</v>
       </c>
       <c r="D20">
-        <v>5.687020192065596</v>
+        <v>5.383439981100302</v>
       </c>
       <c r="E20">
-        <v>7.311476361239971</v>
+        <v>7.834202526892839</v>
       </c>
       <c r="F20">
-        <v>39.8894154952932</v>
+        <v>25.03545112507604</v>
       </c>
       <c r="G20">
-        <v>2.101841345031098</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>34.2302212207105</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.522808572991138</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.21596351853977</v>
       </c>
       <c r="K20">
-        <v>16.65572591753104</v>
+        <v>18.30933261065291</v>
       </c>
       <c r="L20">
-        <v>7.834706222876979</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.19856939579417</v>
       </c>
       <c r="N20">
-        <v>16.6632451241911</v>
+        <v>7.725441862544419</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.78604247032284</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.79720837095252</v>
+        <v>18.38441490949167</v>
       </c>
       <c r="C21">
-        <v>8.24644229942561</v>
+        <v>8.880781880408083</v>
       </c>
       <c r="D21">
-        <v>5.586527801953994</v>
+        <v>5.488794930486203</v>
       </c>
       <c r="E21">
-        <v>7.488357751043926</v>
+        <v>8.020412125809452</v>
       </c>
       <c r="F21">
-        <v>41.45669207653328</v>
+        <v>25.80730868236287</v>
       </c>
       <c r="G21">
-        <v>2.090077885029561</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>35.33264040672074</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.741699655836161</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.3098749919861</v>
       </c>
       <c r="K21">
-        <v>17.77606781168562</v>
+        <v>18.48412957002629</v>
       </c>
       <c r="L21">
-        <v>8.12520543213309</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.04233545866742</v>
       </c>
       <c r="N21">
-        <v>16.5983337632822</v>
+        <v>8.011861912643194</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.55882169697845</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.61859221567686</v>
+        <v>19.07614805310045</v>
       </c>
       <c r="C22">
-        <v>8.525962245090456</v>
+        <v>9.113544623417507</v>
       </c>
       <c r="D22">
-        <v>5.520148985441465</v>
+        <v>5.552085966632079</v>
       </c>
       <c r="E22">
-        <v>7.606880666682303</v>
+        <v>8.148957375015669</v>
       </c>
       <c r="F22">
-        <v>42.48855553138512</v>
+        <v>26.34648597954461</v>
       </c>
       <c r="G22">
-        <v>2.082438114833132</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>36.11397644225816</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.89807482699845</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.38723409100974</v>
       </c>
       <c r="K22">
-        <v>18.48507634715077</v>
+        <v>18.6323569782591</v>
       </c>
       <c r="L22">
-        <v>8.316062272818195</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.57439126182044</v>
       </c>
       <c r="N22">
-        <v>16.5628092314976</v>
+        <v>8.196136842246714</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.41561960835937</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.17384383264892</v>
+        <v>18.72597531583195</v>
       </c>
       <c r="C23">
-        <v>8.377438043608699</v>
+        <v>8.975177593003055</v>
       </c>
       <c r="D23">
-        <v>5.555652248995223</v>
+        <v>5.514373841334348</v>
       </c>
       <c r="E23">
-        <v>7.543352915786031</v>
+        <v>8.086670201484807</v>
       </c>
       <c r="F23">
-        <v>41.93712983620553</v>
+        <v>26.08923028083589</v>
       </c>
       <c r="G23">
-        <v>2.086512220481106</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>35.75121371223608</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.810495733246788</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.35617553145528</v>
       </c>
       <c r="K23">
-        <v>18.10873672945894</v>
+        <v>18.57843669357758</v>
       </c>
       <c r="L23">
-        <v>8.21410941934926</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.29550722419503</v>
       </c>
       <c r="N23">
-        <v>16.58110679204127</v>
+        <v>8.09614163608871</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.49604608502381</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.5196298324272</v>
+        <v>17.3118555543557</v>
       </c>
       <c r="C24">
-        <v>7.800094464422967</v>
+        <v>8.462851586906536</v>
       </c>
       <c r="D24">
-        <v>5.688653304129806</v>
+        <v>5.375422037829914</v>
       </c>
       <c r="E24">
-        <v>7.308634166476466</v>
+        <v>7.841141121994682</v>
       </c>
       <c r="F24">
-        <v>39.86392634373556</v>
+        <v>25.07176046377184</v>
       </c>
       <c r="G24">
-        <v>2.102034650529895</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>34.29920361487181</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.505750352586138</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.2311129179067</v>
       </c>
       <c r="K24">
-        <v>16.63701188128541</v>
+        <v>18.34678488776035</v>
       </c>
       <c r="L24">
-        <v>7.829975852843186</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.18931026035544</v>
       </c>
       <c r="N24">
-        <v>16.66441585062499</v>
+        <v>7.71790891737599</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.79616079755953</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.66269597841061</v>
+        <v>15.73608735116768</v>
       </c>
       <c r="C25">
-        <v>7.143955531768925</v>
+        <v>7.884667690391209</v>
       </c>
       <c r="D25">
-        <v>5.830165698288885</v>
+        <v>5.219874620656158</v>
       </c>
       <c r="E25">
-        <v>7.067826418407799</v>
+        <v>7.578712995599783</v>
       </c>
       <c r="F25">
-        <v>37.66067742447856</v>
+        <v>23.99174533718412</v>
       </c>
       <c r="G25">
-        <v>2.119081385753907</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>32.75911059924779</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.88599866002355</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.11660662324974</v>
       </c>
       <c r="K25">
-        <v>15.06745023047144</v>
+        <v>18.12708867016456</v>
       </c>
       <c r="L25">
-        <v>7.420423690295033</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.89851921989786</v>
       </c>
       <c r="N25">
-        <v>16.78101997152283</v>
+        <v>7.306700399518934</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.12535545999956</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.54242053197825</v>
+        <v>13.99326665805657</v>
       </c>
       <c r="C2">
-        <v>7.396074268468286</v>
+        <v>7.510512578683823</v>
       </c>
       <c r="D2">
-        <v>5.090841253541316</v>
+        <v>5.118468498425597</v>
       </c>
       <c r="E2">
-        <v>7.40510994171933</v>
+        <v>7.120678920794399</v>
       </c>
       <c r="F2">
-        <v>23.29787357094899</v>
+        <v>22.22961972523871</v>
       </c>
       <c r="G2">
-        <v>31.79979740870505</v>
+        <v>29.52109652916215</v>
       </c>
       <c r="I2">
-        <v>3.154014134538242</v>
+        <v>3.007918886571861</v>
       </c>
       <c r="J2">
-        <v>11.07551498539273</v>
+        <v>10.95043345797705</v>
       </c>
       <c r="K2">
-        <v>18.05456938111116</v>
+        <v>17.04123592429376</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.97410143196915</v>
       </c>
       <c r="M2">
-        <v>11.87183581258707</v>
+        <v>11.30228560387954</v>
       </c>
       <c r="N2">
-        <v>6.998240790001196</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.83140136798992</v>
       </c>
       <c r="P2">
-        <v>13.38400170183346</v>
+        <v>7.069579802579307</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.12012742826629</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.64729818787276</v>
+        <v>13.14408449445255</v>
       </c>
       <c r="C3">
-        <v>7.073812214249623</v>
+        <v>7.101058608038826</v>
       </c>
       <c r="D3">
-        <v>5.006400383610299</v>
+        <v>5.002876788587788</v>
       </c>
       <c r="E3">
-        <v>7.280549435491232</v>
+        <v>7.0121237542052</v>
       </c>
       <c r="F3">
-        <v>22.79493710620743</v>
+        <v>21.8089452015997</v>
       </c>
       <c r="G3">
-        <v>31.08668441284641</v>
+        <v>29.00202574318638</v>
       </c>
       <c r="I3">
-        <v>3.361487050303051</v>
+        <v>3.188076995148345</v>
       </c>
       <c r="J3">
-        <v>11.04197685550515</v>
+        <v>10.89780489196618</v>
       </c>
       <c r="K3">
-        <v>17.98250331871887</v>
+        <v>17.02808419641037</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.05545117878084</v>
       </c>
       <c r="M3">
-        <v>11.11771363362611</v>
+        <v>11.21265133139482</v>
       </c>
       <c r="N3">
-        <v>6.792677918130249</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.09729653789047</v>
       </c>
       <c r="P3">
-        <v>13.55705928199281</v>
+        <v>6.857862566637489</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.28829894420205</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.0675602109128</v>
+        <v>12.59239830551929</v>
       </c>
       <c r="C4">
-        <v>6.870099679576184</v>
+        <v>6.841076924076837</v>
       </c>
       <c r="D4">
-        <v>4.953444401997181</v>
+        <v>4.930428560252217</v>
       </c>
       <c r="E4">
-        <v>7.205148061444406</v>
+        <v>6.946291302310447</v>
       </c>
       <c r="F4">
-        <v>22.49197571986023</v>
+        <v>21.555219053636</v>
       </c>
       <c r="G4">
-        <v>30.65657940723138</v>
+        <v>28.69461833621613</v>
       </c>
       <c r="I4">
-        <v>3.494178080534026</v>
+        <v>3.303708109178548</v>
       </c>
       <c r="J4">
-        <v>11.02545877337369</v>
+        <v>10.86662888883053</v>
       </c>
       <c r="K4">
-        <v>17.94380375736297</v>
+        <v>17.02379665998825</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.10401797824001</v>
       </c>
       <c r="M4">
-        <v>10.62800150228406</v>
+        <v>11.17874323440535</v>
       </c>
       <c r="N4">
-        <v>6.667378768357734</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.62056055907659</v>
       </c>
       <c r="P4">
-        <v>13.66509912295142</v>
+        <v>6.728587111918046</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.39331517980203</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.81814061500099</v>
+        <v>12.35441697262336</v>
       </c>
       <c r="C5">
-        <v>6.790206979888221</v>
+        <v>6.738290159758501</v>
       </c>
       <c r="D5">
-        <v>4.932605065811427</v>
+        <v>4.901664823039412</v>
       </c>
       <c r="E5">
-        <v>7.172942629718178</v>
+        <v>6.917969625344354</v>
       </c>
       <c r="F5">
-        <v>22.3610864309203</v>
+        <v>21.44427362279847</v>
       </c>
       <c r="G5">
-        <v>30.46730770193255</v>
+        <v>28.55661074284608</v>
       </c>
       <c r="I5">
-        <v>3.552353327248143</v>
+        <v>3.355300180620077</v>
       </c>
       <c r="J5">
-        <v>11.01689469756921</v>
+        <v>10.85141294535324</v>
       </c>
       <c r="K5">
-        <v>17.922530268852</v>
+        <v>17.01647053633052</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.11764524781038</v>
       </c>
       <c r="M5">
-        <v>10.42068321291937</v>
+        <v>11.16623891597816</v>
       </c>
       <c r="N5">
-        <v>6.61717606765275</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.41875357284696</v>
       </c>
       <c r="P5">
-        <v>13.70838383621306</v>
+        <v>6.676707506258772</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.43558065286158</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.76930301637527</v>
+        <v>12.3075789708432</v>
       </c>
       <c r="C6">
-        <v>6.78245530223306</v>
+        <v>6.727548177324071</v>
       </c>
       <c r="D6">
-        <v>4.930370407894395</v>
+        <v>4.898232337769369</v>
       </c>
       <c r="E6">
-        <v>7.16543647908553</v>
+        <v>6.911172020981072</v>
       </c>
       <c r="F6">
-        <v>22.32842709903673</v>
+        <v>21.41520254137109</v>
       </c>
       <c r="G6">
-        <v>30.41631735344424</v>
+        <v>28.51479112779062</v>
       </c>
       <c r="I6">
-        <v>3.565621210792741</v>
+        <v>3.368059979984524</v>
       </c>
       <c r="J6">
-        <v>11.01206780148016</v>
+        <v>10.84548619080193</v>
       </c>
       <c r="K6">
-        <v>17.91068513465175</v>
+        <v>17.00736703441176</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.11278978358987</v>
       </c>
       <c r="M6">
-        <v>10.3845773899916</v>
+        <v>11.15957299683468</v>
       </c>
       <c r="N6">
-        <v>6.609539462655162</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.38362210737383</v>
       </c>
       <c r="P6">
-        <v>13.71412855719204</v>
+        <v>6.668773407187264</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.44142582899801</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.04559134120314</v>
+        <v>12.56645967172745</v>
       </c>
       <c r="C7">
-        <v>6.884124069663192</v>
+        <v>6.849454640093783</v>
       </c>
       <c r="D7">
-        <v>4.956565642549545</v>
+        <v>4.936255478901468</v>
       </c>
       <c r="E7">
-        <v>7.198794200994187</v>
+        <v>6.942356975572246</v>
       </c>
       <c r="F7">
-        <v>22.46030423371764</v>
+        <v>21.5060096596023</v>
       </c>
       <c r="G7">
-        <v>30.60061414010868</v>
+        <v>28.71395941131588</v>
       </c>
       <c r="I7">
-        <v>3.504325848546388</v>
+        <v>3.316017351411428</v>
       </c>
       <c r="J7">
-        <v>11.01589605220319</v>
+        <v>10.81396307787022</v>
       </c>
       <c r="K7">
-        <v>17.92062534190763</v>
+        <v>16.99271686828124</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.07700512308873</v>
       </c>
       <c r="M7">
-        <v>10.62182356102489</v>
+        <v>11.15879197912428</v>
       </c>
       <c r="N7">
-        <v>6.668533310983546</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.60846271532258</v>
       </c>
       <c r="P7">
-        <v>13.66170774546552</v>
+        <v>6.729009581434497</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.38909983084492</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.21717822893301</v>
+        <v>13.67065489492185</v>
       </c>
       <c r="C8">
-        <v>7.30529629313472</v>
+        <v>7.369097431828499</v>
       </c>
       <c r="D8">
-        <v>5.066497630621757</v>
+        <v>5.092161499576539</v>
       </c>
       <c r="E8">
-        <v>7.354268692499574</v>
+        <v>7.082813003915958</v>
       </c>
       <c r="F8">
-        <v>23.08478463707919</v>
+        <v>21.98596000562753</v>
       </c>
       <c r="G8">
-        <v>31.48363612309643</v>
+        <v>29.51136909437831</v>
       </c>
       <c r="I8">
-        <v>3.236566421256949</v>
+        <v>3.085277601183257</v>
       </c>
       <c r="J8">
-        <v>11.05069312648444</v>
+        <v>10.77894562344016</v>
       </c>
       <c r="K8">
-        <v>17.99849568104246</v>
+        <v>16.97697487221713</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.95368476954595</v>
       </c>
       <c r="M8">
-        <v>11.61314481332676</v>
+        <v>11.2258359671323</v>
       </c>
       <c r="N8">
-        <v>6.929539056569778</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.56078962494407</v>
       </c>
       <c r="P8">
-        <v>13.43825256208752</v>
+        <v>6.996572041539628</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.16899365201522</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.30233314979052</v>
+        <v>15.67985838479156</v>
       </c>
       <c r="C9">
-        <v>8.05880503979669</v>
+        <v>8.317655646992806</v>
       </c>
       <c r="D9">
-        <v>5.266818210409003</v>
+        <v>5.369537599232026</v>
       </c>
       <c r="E9">
-        <v>7.676750346669777</v>
+        <v>7.3656528330951</v>
       </c>
       <c r="F9">
-        <v>24.40251283639163</v>
+        <v>23.07931478791867</v>
       </c>
       <c r="G9">
-        <v>33.36234590272593</v>
+        <v>30.9818814903415</v>
       </c>
       <c r="I9">
-        <v>2.737345251888686</v>
+        <v>2.651503867796129</v>
       </c>
       <c r="J9">
-        <v>11.1690983383959</v>
+        <v>10.89109590720477</v>
       </c>
       <c r="K9">
-        <v>18.23729325308748</v>
+        <v>17.04991283410603</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.76175660067997</v>
       </c>
       <c r="M9">
-        <v>13.35157662107424</v>
+        <v>11.57257005465438</v>
       </c>
       <c r="N9">
-        <v>7.442564465136077</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.2499605655442</v>
       </c>
       <c r="P9">
-        <v>13.02014489096307</v>
+        <v>7.523156390567112</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.76144523828721</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.72185948441119</v>
+        <v>17.02100874037899</v>
       </c>
       <c r="C10">
-        <v>8.589897266759889</v>
+        <v>8.942392343930468</v>
       </c>
       <c r="D10">
-        <v>5.409809598703203</v>
+        <v>5.581022974692107</v>
       </c>
       <c r="E10">
-        <v>7.91363613573894</v>
+        <v>7.584716045556117</v>
       </c>
       <c r="F10">
-        <v>25.3759977285099</v>
+        <v>23.78867294878695</v>
       </c>
       <c r="G10">
-        <v>34.74353455966288</v>
+        <v>32.47976206564722</v>
       </c>
       <c r="I10">
-        <v>2.567118325506478</v>
+        <v>2.611439760984076</v>
       </c>
       <c r="J10">
-        <v>11.27343158661986</v>
+        <v>10.7382432432717</v>
       </c>
       <c r="K10">
-        <v>18.43149826028515</v>
+        <v>17.06261169178097</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.56931769983362</v>
       </c>
       <c r="M10">
-        <v>14.50010103365917</v>
+        <v>11.87349246098056</v>
       </c>
       <c r="N10">
-        <v>7.819217776991187</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.33739091634009</v>
       </c>
       <c r="P10">
-        <v>12.71818240284642</v>
+        <v>7.904734863352616</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.46081724074524</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.32798577469822</v>
+        <v>17.53963896186383</v>
       </c>
       <c r="C11">
-        <v>8.84532689935015</v>
+        <v>9.178680765509291</v>
       </c>
       <c r="D11">
-        <v>5.479116969577178</v>
+        <v>5.706797513123956</v>
       </c>
       <c r="E11">
-        <v>8.012910706980044</v>
+        <v>7.697225361984667</v>
       </c>
       <c r="F11">
-        <v>25.77939575387885</v>
+        <v>23.90432608051617</v>
       </c>
       <c r="G11">
-        <v>35.30052036623446</v>
+        <v>33.78129004774738</v>
       </c>
       <c r="I11">
-        <v>2.722146082247207</v>
+        <v>2.742956035118389</v>
       </c>
       <c r="J11">
-        <v>11.31121890589716</v>
+        <v>10.2605802327687</v>
       </c>
       <c r="K11">
-        <v>18.49104899295311</v>
+        <v>16.94886392087004</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.39399731500372</v>
       </c>
       <c r="M11">
-        <v>14.99118285281372</v>
+        <v>11.92683402103754</v>
       </c>
       <c r="N11">
-        <v>7.992083548264126</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.75510748984392</v>
       </c>
       <c r="P11">
-        <v>12.57642491701921</v>
+        <v>8.073161504554561</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.31048518628471</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.56438635096537</v>
+        <v>17.73902027896731</v>
       </c>
       <c r="C12">
-        <v>8.930134929011187</v>
+        <v>9.247847609065511</v>
       </c>
       <c r="D12">
-        <v>5.502176967115703</v>
+        <v>5.754107894910649</v>
       </c>
       <c r="E12">
-        <v>8.055232979889665</v>
+        <v>7.747080192815729</v>
       </c>
       <c r="F12">
-        <v>25.95551269253696</v>
+        <v>23.9501552075718</v>
       </c>
       <c r="G12">
-        <v>35.55282365901405</v>
+        <v>34.40035784274759</v>
       </c>
       <c r="I12">
-        <v>2.777432207029306</v>
+        <v>2.78785056067978</v>
       </c>
       <c r="J12">
-        <v>11.3341870597277</v>
+        <v>10.04581524855713</v>
       </c>
       <c r="K12">
-        <v>18.53376097062553</v>
+        <v>16.91263473840262</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.33279885576404</v>
       </c>
       <c r="M12">
-        <v>15.17556194167092</v>
+        <v>11.95392332012501</v>
       </c>
       <c r="N12">
-        <v>8.056038306156827</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.90648927830707</v>
       </c>
       <c r="P12">
-        <v>12.52594235545864</v>
+        <v>8.134638826353223</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.25454129410355</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.51611424596415</v>
+        <v>17.69880433291242</v>
       </c>
       <c r="C13">
-        <v>8.909738273568244</v>
+        <v>9.230911815086316</v>
       </c>
       <c r="D13">
-        <v>5.496619676909311</v>
+        <v>5.743115407290728</v>
       </c>
       <c r="E13">
-        <v>8.047056115102052</v>
+        <v>7.737125581916512</v>
       </c>
       <c r="F13">
-        <v>25.92212427821809</v>
+        <v>23.9455768068618</v>
       </c>
       <c r="G13">
-        <v>35.50655749890759</v>
+        <v>34.27108722429531</v>
       </c>
       <c r="I13">
-        <v>2.764899177211379</v>
+        <v>2.777337588277842</v>
       </c>
       <c r="J13">
-        <v>11.33078663096556</v>
+        <v>10.09500688165159</v>
       </c>
       <c r="K13">
-        <v>18.52833985457885</v>
+        <v>16.92443543275202</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.3487697721785</v>
       </c>
       <c r="M13">
-        <v>15.13647477302526</v>
+        <v>11.95130818517084</v>
       </c>
       <c r="N13">
-        <v>8.042012257261037</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.87471487981906</v>
       </c>
       <c r="P13">
-        <v>12.5374126923695</v>
+        <v>8.121190412447072</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.26698745787104</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.34857093582997</v>
+        <v>17.55721794968595</v>
       </c>
       <c r="C14">
-        <v>8.851393908233973</v>
+        <v>9.1835052286078</v>
       </c>
       <c r="D14">
-        <v>5.480763029991791</v>
+        <v>5.710346000412909</v>
       </c>
       <c r="E14">
-        <v>8.016792344692261</v>
+        <v>7.701657550018508</v>
       </c>
       <c r="F14">
-        <v>25.79582271593834</v>
+        <v>23.91037660091455</v>
       </c>
       <c r="G14">
-        <v>35.32472238659375</v>
+        <v>33.83386142495814</v>
       </c>
       <c r="I14">
-        <v>2.726416371329893</v>
+        <v>2.746278431662621</v>
       </c>
       <c r="J14">
-        <v>11.31376557668805</v>
+        <v>10.24423483964881</v>
       </c>
       <c r="K14">
-        <v>18.49616923258964</v>
+        <v>16.94759896140481</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.39016617495251</v>
       </c>
       <c r="M14">
-        <v>15.00662191403762</v>
+        <v>11.93043820676081</v>
       </c>
       <c r="N14">
-        <v>7.997237428228532</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.76792549045553</v>
       </c>
       <c r="P14">
-        <v>12.57252594477425</v>
+        <v>8.078131220387645</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.30605723569471</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.24043902840974</v>
+        <v>17.46467209266458</v>
       </c>
       <c r="C15">
-        <v>8.819868927293093</v>
+        <v>9.158224877526191</v>
       </c>
       <c r="D15">
-        <v>5.472208520878576</v>
+        <v>5.691976274812338</v>
       </c>
       <c r="E15">
-        <v>7.996396210661056</v>
+        <v>7.67849654245004</v>
       </c>
       <c r="F15">
-        <v>25.70944936206734</v>
+        <v>23.87744666211793</v>
       </c>
       <c r="G15">
-        <v>35.19731719353224</v>
+        <v>33.56162047994588</v>
       </c>
       <c r="I15">
-        <v>2.704215709704843</v>
+        <v>2.729052573156185</v>
       </c>
       <c r="J15">
-        <v>11.30031768152829</v>
+        <v>10.32793338137694</v>
       </c>
       <c r="K15">
-        <v>18.46904564252261</v>
+        <v>16.95340485931636</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.40962273763395</v>
       </c>
       <c r="M15">
-        <v>14.92568083641909</v>
+        <v>11.91099753234311</v>
       </c>
       <c r="N15">
-        <v>7.970307345525554</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.70048666064148</v>
       </c>
       <c r="P15">
-        <v>12.59286000797545</v>
+        <v>8.052129704889731</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.32912506349281</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.6400841249813</v>
+        <v>16.94567685735586</v>
       </c>
       <c r="C16">
-        <v>8.610100847613332</v>
+        <v>8.967105256482052</v>
       </c>
       <c r="D16">
-        <v>5.415238444259008</v>
+        <v>5.584158355831477</v>
       </c>
       <c r="E16">
-        <v>7.891341412185309</v>
+        <v>7.562497779640101</v>
       </c>
       <c r="F16">
-        <v>25.27245634765663</v>
+        <v>23.70382054859833</v>
       </c>
       <c r="G16">
-        <v>34.56989890988923</v>
+        <v>32.27236072349534</v>
       </c>
       <c r="I16">
-        <v>2.567968243388007</v>
+        <v>2.617445344084212</v>
       </c>
       <c r="J16">
-        <v>11.24464326045273</v>
+        <v>10.73964994151358</v>
       </c>
       <c r="K16">
-        <v>18.363780808215</v>
+        <v>17.00940304773246</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.53711726333533</v>
       </c>
       <c r="M16">
-        <v>14.459741225793</v>
+        <v>11.82132990576747</v>
       </c>
       <c r="N16">
-        <v>7.812360186744789</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.30142040756294</v>
       </c>
       <c r="P16">
-        <v>12.71730297749592</v>
+        <v>7.897941801506968</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.46379820719645</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.26199678275076</v>
+        <v>16.6111510459557</v>
       </c>
       <c r="C17">
-        <v>8.479792509467773</v>
+        <v>8.835173890347932</v>
       </c>
       <c r="D17">
-        <v>5.37990229119558</v>
+        <v>5.52296889043391</v>
       </c>
       <c r="E17">
-        <v>7.826976279093781</v>
+        <v>7.495967948366703</v>
       </c>
       <c r="F17">
-        <v>25.00517878041781</v>
+        <v>23.56237525121507</v>
       </c>
       <c r="G17">
-        <v>34.18611675748428</v>
+        <v>31.63039869764073</v>
       </c>
       <c r="I17">
-        <v>2.533345170940376</v>
+        <v>2.547765579660159</v>
       </c>
       <c r="J17">
-        <v>11.2119014823471</v>
+        <v>10.91213927486609</v>
       </c>
       <c r="K17">
-        <v>18.30122582386036</v>
+        <v>17.02545947527614</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.60194170164679</v>
       </c>
       <c r="M17">
-        <v>14.16694958968488</v>
+        <v>11.754593565755</v>
       </c>
       <c r="N17">
-        <v>7.715197419006274</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.04039735152421</v>
       </c>
       <c r="P17">
-        <v>12.79397660437682</v>
+        <v>7.801654725776692</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.54446479758637</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.05384163551193</v>
+        <v>16.42532121509813</v>
       </c>
       <c r="C18">
-        <v>8.392748562533251</v>
+        <v>8.740907911907485</v>
       </c>
       <c r="D18">
-        <v>5.356397115395676</v>
+        <v>5.486200627344679</v>
       </c>
       <c r="E18">
-        <v>7.794838155124557</v>
+        <v>7.464000566109918</v>
       </c>
       <c r="F18">
-        <v>24.87554531205905</v>
+        <v>23.49146762688131</v>
       </c>
       <c r="G18">
-        <v>34.00811587187983</v>
+        <v>31.3553904295036</v>
       </c>
       <c r="I18">
-        <v>2.575178926340241</v>
+        <v>2.520121334867106</v>
       </c>
       <c r="J18">
-        <v>11.20162081876915</v>
+        <v>10.98836770525987</v>
       </c>
       <c r="K18">
-        <v>18.28543718424215</v>
+        <v>17.04632365412517</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.64759147703227</v>
       </c>
       <c r="M18">
-        <v>13.99837646967461</v>
+        <v>11.72666770905655</v>
       </c>
       <c r="N18">
-        <v>7.657845980149848</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.88656858207197</v>
       </c>
       <c r="P18">
-        <v>12.8412926877163</v>
+        <v>7.744331492164915</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.59226036817109</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.97279134290043</v>
+        <v>16.35171675331322</v>
       </c>
       <c r="C19">
-        <v>8.3720221450391</v>
+        <v>8.717973582907314</v>
       </c>
       <c r="D19">
-        <v>5.35075844980121</v>
+        <v>5.476594953491312</v>
       </c>
       <c r="E19">
-        <v>7.780232002074655</v>
+        <v>7.449859560221019</v>
       </c>
       <c r="F19">
-        <v>24.81340309615809</v>
+        <v>23.44764564896207</v>
       </c>
       <c r="G19">
-        <v>33.91535804662954</v>
+        <v>31.23951170185825</v>
       </c>
       <c r="I19">
-        <v>2.597613246238233</v>
+        <v>2.540751899308519</v>
       </c>
       <c r="J19">
-        <v>11.19202715743739</v>
+        <v>11.00312580255174</v>
       </c>
       <c r="K19">
-        <v>18.26521120406633</v>
+        <v>17.038365243035</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.65198038896772</v>
       </c>
       <c r="M19">
-        <v>13.93901182594642</v>
+        <v>11.70549155613649</v>
       </c>
       <c r="N19">
-        <v>7.639480410581584</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.83168009074592</v>
       </c>
       <c r="P19">
-        <v>12.85495448130446</v>
+        <v>7.72586285097688</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.60666854333938</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.30362107789452</v>
+        <v>16.64835164803235</v>
       </c>
       <c r="C20">
-        <v>8.492831168299888</v>
+        <v>8.848782472020684</v>
       </c>
       <c r="D20">
-        <v>5.383439981100302</v>
+        <v>5.529040719847286</v>
       </c>
       <c r="E20">
-        <v>7.834202526892839</v>
+        <v>7.503243552330112</v>
       </c>
       <c r="F20">
-        <v>25.03545112507604</v>
+        <v>23.58052637867265</v>
       </c>
       <c r="G20">
-        <v>34.2302212207105</v>
+        <v>31.69641672543478</v>
       </c>
       <c r="I20">
-        <v>2.522808572991138</v>
+        <v>2.55476023325793</v>
       </c>
       <c r="J20">
-        <v>11.21596351853977</v>
+        <v>10.89750284192556</v>
       </c>
       <c r="K20">
-        <v>18.30933261065291</v>
+        <v>17.02583809209358</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.59657996933107</v>
       </c>
       <c r="M20">
-        <v>14.19856939579417</v>
+        <v>11.76324206951174</v>
       </c>
       <c r="N20">
-        <v>7.725441862544419</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.06898228243662</v>
       </c>
       <c r="P20">
-        <v>12.78604247032284</v>
+        <v>7.811861795108483</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.53611794894342</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.38441490949167</v>
+        <v>17.57381805133802</v>
       </c>
       <c r="C21">
-        <v>8.880781880408083</v>
+        <v>9.189482932370808</v>
       </c>
       <c r="D21">
-        <v>5.488794930486203</v>
+        <v>5.732695043613237</v>
       </c>
       <c r="E21">
-        <v>8.020412125809452</v>
+        <v>7.71448272507686</v>
       </c>
       <c r="F21">
-        <v>25.80730868236287</v>
+        <v>23.83615177979592</v>
       </c>
       <c r="G21">
-        <v>35.33264040672074</v>
+        <v>34.16068680877825</v>
       </c>
       <c r="I21">
-        <v>2.741699655836161</v>
+        <v>2.759039153849768</v>
       </c>
       <c r="J21">
-        <v>11.3098749919861</v>
+        <v>10.0595639799916</v>
       </c>
       <c r="K21">
-        <v>18.48412957002629</v>
+        <v>16.88888023294455</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.34156079680342</v>
       </c>
       <c r="M21">
-        <v>15.04233545866742</v>
+        <v>11.89399762961621</v>
       </c>
       <c r="N21">
-        <v>8.011861912643194</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.78049661364406</v>
       </c>
       <c r="P21">
-        <v>12.55882169697845</v>
+        <v>8.0900049499175</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.28860064559141</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.07614805310045</v>
+        <v>18.16308323651254</v>
       </c>
       <c r="C22">
-        <v>9.113544623417507</v>
+        <v>9.38447067956233</v>
       </c>
       <c r="D22">
-        <v>5.552085966632079</v>
+        <v>5.863243160706812</v>
       </c>
       <c r="E22">
-        <v>8.148957375015669</v>
+        <v>7.862441919075952</v>
       </c>
       <c r="F22">
-        <v>26.34648597954461</v>
+        <v>24.01686028566732</v>
       </c>
       <c r="G22">
-        <v>36.11397644225816</v>
+        <v>35.92619650077545</v>
       </c>
       <c r="I22">
-        <v>2.89807482699845</v>
+        <v>2.884879841400599</v>
       </c>
       <c r="J22">
-        <v>11.38723409100974</v>
+        <v>9.513431330924389</v>
       </c>
       <c r="K22">
-        <v>18.6323569782591</v>
+        <v>16.81517618897265</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.18647114199318</v>
       </c>
       <c r="M22">
-        <v>15.57439126182044</v>
+        <v>12.00119827163208</v>
       </c>
       <c r="N22">
-        <v>8.196136842246714</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.22370759294908</v>
       </c>
       <c r="P22">
-        <v>12.41561960835937</v>
+        <v>8.267759115106101</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.13012597291215</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.72597531583195</v>
+        <v>17.87542757198006</v>
       </c>
       <c r="C23">
-        <v>8.975177593003055</v>
+        <v>9.279972692771862</v>
       </c>
       <c r="D23">
-        <v>5.514373841334348</v>
+        <v>5.782556148961506</v>
       </c>
       <c r="E23">
-        <v>8.086670201484807</v>
+        <v>7.78401716713994</v>
       </c>
       <c r="F23">
-        <v>26.08923028083589</v>
+        <v>23.99321362554943</v>
       </c>
       <c r="G23">
-        <v>35.75121371223608</v>
+        <v>34.85920802798327</v>
       </c>
       <c r="I23">
-        <v>2.810495733246788</v>
+        <v>2.813108869428254</v>
       </c>
       <c r="J23">
-        <v>11.35617553145528</v>
+        <v>9.902519969360132</v>
       </c>
       <c r="K23">
-        <v>18.57843669357758</v>
+        <v>16.90150818943774</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.30190455878182</v>
       </c>
       <c r="M23">
-        <v>15.29550722419503</v>
+        <v>11.98188906355284</v>
       </c>
       <c r="N23">
-        <v>8.09614163608871</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.00364711848015</v>
       </c>
       <c r="P23">
-        <v>12.49604608502381</v>
+        <v>8.172936428624183</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.21966933741083</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.3118555543557</v>
+        <v>16.65779862516089</v>
       </c>
       <c r="C24">
-        <v>8.462851586906536</v>
+        <v>8.815661656637104</v>
       </c>
       <c r="D24">
-        <v>5.375422037829914</v>
+        <v>5.519284127385041</v>
       </c>
       <c r="E24">
-        <v>7.841141121994682</v>
+        <v>7.509774870872703</v>
       </c>
       <c r="F24">
-        <v>25.07176046377184</v>
+        <v>23.62065318836147</v>
       </c>
       <c r="G24">
-        <v>34.29920361487181</v>
+        <v>31.75307490082396</v>
       </c>
       <c r="I24">
-        <v>2.505750352586138</v>
+        <v>2.540517612441745</v>
       </c>
       <c r="J24">
-        <v>11.2311129179067</v>
+        <v>10.91988530395641</v>
       </c>
       <c r="K24">
-        <v>18.34678488776035</v>
+        <v>17.06384233493123</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.62683313465232</v>
       </c>
       <c r="M24">
-        <v>14.18931026035544</v>
+        <v>11.78983595190873</v>
       </c>
       <c r="N24">
-        <v>7.71790891737599</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.06090054827602</v>
       </c>
       <c r="P24">
-        <v>12.79616079755953</v>
+        <v>7.804419911449158</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.54434789969885</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.73608735116768</v>
+        <v>15.12105088322449</v>
       </c>
       <c r="C25">
-        <v>7.884667690391209</v>
+        <v>8.105994633227443</v>
       </c>
       <c r="D25">
-        <v>5.219874620656158</v>
+        <v>5.299246497158547</v>
       </c>
       <c r="E25">
-        <v>7.578712995599783</v>
+        <v>7.275873066160004</v>
       </c>
       <c r="F25">
-        <v>23.99174533718412</v>
+        <v>22.7563817073444</v>
       </c>
       <c r="G25">
-        <v>32.75911059924779</v>
+        <v>30.38841248487096</v>
       </c>
       <c r="I25">
-        <v>2.88599866002355</v>
+        <v>2.784833581285802</v>
       </c>
       <c r="J25">
-        <v>11.11660662324974</v>
+        <v>10.90340311705927</v>
       </c>
       <c r="K25">
-        <v>18.12708867016456</v>
+        <v>17.00177829833437</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.79576892642104</v>
       </c>
       <c r="M25">
-        <v>12.89851921989786</v>
+        <v>11.44246097871168</v>
       </c>
       <c r="N25">
-        <v>7.306700399518934</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.81733924355216</v>
       </c>
       <c r="P25">
-        <v>13.12535545999956</v>
+        <v>7.384684876586918</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.86750732162684</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
